--- a/code/excels/npc_abilities_override.xlsx
+++ b/code/excels/npc_abilities_override.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="420">
   <si>
     <t>版本</t>
   </si>
@@ -36,43 +36,40 @@
     <t>UnitName</t>
   </si>
   <si>
+    <t>字段注释</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>DOTAAbilities</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>K+</t>
+  </si>
+  <si>
+    <t>V+</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>#base</t>
+  </si>
+  <si>
     <t>item_blink</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
-    <t>字段注释</t>
-  </si>
-  <si>
-    <t>字段</t>
-  </si>
-  <si>
-    <t>DOTAAbilities</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>K+</t>
-  </si>
-  <si>
-    <t>V+</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>#base</t>
   </si>
   <si>
     <t>item_overwhelming_blink</t>
@@ -1290,8 +1287,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1304,60 +1301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,14 +1315,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1393,14 +1360,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1408,16 +1367,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1433,17 +1409,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1462,7 +1459,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,37 +1567,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,19 +1609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1540,43 +1627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1588,61 +1639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1653,17 +1650,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1682,11 +1668,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1709,47 +1734,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1759,10 +1756,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1771,133 +1768,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2249,7 +2246,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C406" sqref="B4:C406"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2281,17 +2278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="3" s="1" customFormat="1"/>
     <row r="4" spans="2:3">
       <c r="B4"/>
       <c r="C4" s="1"/>
@@ -3929,7 +3916,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="31.5" customHeight="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -3943,10 +3930,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -3960,41 +3947,41 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -4020,2022 +4007,2022 @@
   <sheetData>
     <row r="7" spans="5:5">
       <c r="E7" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="162" spans="5:5">
       <c r="E162" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="163" spans="5:5">
       <c r="E163" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="167" spans="5:5">
       <c r="E167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="5:5">
       <c r="E168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="5:5">
       <c r="E170" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="5:5">
       <c r="E171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="5:5">
       <c r="E173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="176" spans="5:5">
       <c r="E176" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="177" spans="5:5">
       <c r="E177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="5:5">
       <c r="E178" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="5:5">
       <c r="E179" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="5:5">
       <c r="E181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="184" spans="5:5">
       <c r="E184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="186" spans="5:5">
       <c r="E186" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="5:5">
       <c r="E187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="5:5">
       <c r="E188" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="190" spans="5:5">
       <c r="E190" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="5:5">
       <c r="E192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="5:5">
       <c r="E193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="196" spans="5:5">
       <c r="E196" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="197" spans="5:5">
       <c r="E197" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="199" spans="5:5">
       <c r="E199" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="5:5">
       <c r="E200" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="201" spans="5:5">
       <c r="E201" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="203" spans="5:5">
       <c r="E203" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204" spans="5:5">
       <c r="E204" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="205" spans="5:5">
       <c r="E205" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="207" spans="5:5">
       <c r="E207" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="208" spans="5:5">
       <c r="E208" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="210" spans="5:5">
       <c r="E210" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="211" spans="5:5">
       <c r="E211" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="5:5">
       <c r="E212" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="213" spans="5:5">
       <c r="E213" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="214" spans="5:5">
       <c r="E214" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="215" spans="5:5">
       <c r="E215" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="216" spans="5:5">
       <c r="E216" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="218" spans="5:5">
       <c r="E218" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="219" spans="5:5">
       <c r="E219" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="220" spans="5:5">
       <c r="E220" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="222" spans="5:5">
       <c r="E222" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="5:5">
       <c r="E223" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="225" spans="5:5">
       <c r="E225" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="226" spans="5:5">
       <c r="E226" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="5:5">
       <c r="E227" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="228" spans="5:5">
       <c r="E228" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="229" spans="5:5">
       <c r="E229" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="230" spans="5:5">
       <c r="E230" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="232" spans="5:5">
       <c r="E232" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="233" spans="5:5">
       <c r="E233" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="234" spans="5:5">
       <c r="E234" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="5:5">
       <c r="E235" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="236" spans="5:5">
       <c r="E236" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="238" spans="5:5">
       <c r="E238" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="239" spans="5:5">
       <c r="E239" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="240" spans="5:5">
       <c r="E240" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="242" spans="5:5">
       <c r="E242" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="243" spans="5:5">
       <c r="E243" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="245" spans="5:5">
       <c r="E245" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="246" spans="5:5">
       <c r="E246" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="247" spans="5:5">
       <c r="E247" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="248" spans="5:5">
       <c r="E248" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="250" spans="5:5">
       <c r="E250" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="251" spans="5:5">
       <c r="E251" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="252" spans="5:5">
       <c r="E252" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="253" spans="5:5">
       <c r="E253" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="255" spans="5:5">
       <c r="E255" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="256" spans="5:5">
       <c r="E256" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" spans="5:5">
       <c r="E258" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="259" spans="5:5">
       <c r="E259" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="5:5">
       <c r="E261" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="262" spans="5:5">
       <c r="E262" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="5:5">
       <c r="E265" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="5:5">
       <c r="E266" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="267" spans="5:5">
       <c r="E267" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="273" spans="5:5">
       <c r="E273" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="274" spans="5:5">
       <c r="E274" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="275" spans="5:5">
       <c r="E275" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="276" spans="5:5">
       <c r="E276" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="277" spans="5:5">
       <c r="E277" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="278" spans="5:5">
       <c r="E278" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="279" spans="5:5">
       <c r="E279" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="280" spans="5:5">
       <c r="E280" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="281" spans="5:5">
       <c r="E281" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="282" spans="5:5">
       <c r="E282" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="283" spans="5:5">
       <c r="E283" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="284" spans="5:5">
       <c r="E284" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="285" spans="5:5">
       <c r="E285" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="286" spans="5:5">
       <c r="E286" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="287" spans="5:5">
       <c r="E287" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="288" spans="5:5">
       <c r="E288" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="5:5">
       <c r="E289" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="290" spans="5:5">
       <c r="E290" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291" spans="5:5">
       <c r="E291" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="292" spans="5:5">
       <c r="E292" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="293" spans="5:5">
       <c r="E293" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="5:5">
       <c r="E294" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="295" spans="5:5">
       <c r="E295" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="296" spans="5:5">
       <c r="E296" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="297" spans="5:5">
       <c r="E297" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="298" spans="5:5">
       <c r="E298" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="299" spans="5:5">
       <c r="E299" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300" spans="5:5">
       <c r="E300" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="301" spans="5:5">
       <c r="E301" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="5:5">
       <c r="E302" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="303" spans="5:5">
       <c r="E303" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="304" spans="5:5">
       <c r="E304" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="390" spans="5:5">
       <c r="E390" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="391" spans="5:5">
       <c r="E391" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="392" spans="5:5">
       <c r="E392" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="393" spans="5:5">
       <c r="E393" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="394" spans="5:5">
       <c r="E394" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="395" spans="5:5">
       <c r="E395" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="396" spans="5:5">
       <c r="E396" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="397" spans="5:5">
       <c r="E397" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="398" spans="5:5">
       <c r="E398" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="399" spans="5:5">
       <c r="E399" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="400" spans="5:5">
       <c r="E400" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="401" spans="5:5">
       <c r="E401" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="402" spans="5:5">
       <c r="E402" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="403" spans="5:5">
       <c r="E403" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="404" spans="5:5">
       <c r="E404" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="405" spans="5:5">
       <c r="E405" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="406" spans="5:5">
       <c r="E406" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="407" spans="5:5">
       <c r="E407" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="408" spans="5:5">
       <c r="E408" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="409" spans="5:5">
       <c r="E409" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="410" spans="5:5">
       <c r="E410" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/code/excels/npc_abilities_override.xlsx
+++ b/code/excels/npc_abilities_override.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330"/>
+    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="422">
   <si>
     <t>版本</t>
   </si>
@@ -39,6 +39,9 @@
     <t>字段注释</t>
   </si>
   <si>
+    <t>表名</t>
+  </si>
+  <si>
     <t>字段</t>
   </si>
   <si>
@@ -67,6 +70,9 @@
   </si>
   <si>
     <t>#base</t>
+  </si>
+  <si>
+    <t>dota/dota_abilities_override.kv</t>
   </si>
   <si>
     <t>item_blink</t>
@@ -2241,7 +2247,7 @@
   <sheetPr/>
   <dimension ref="A1:C406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3901,13 +3907,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="17.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -3918,6 +3924,9 @@
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3930,10 +3939,10 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -3947,41 +3956,46 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -4007,2022 +4021,2022 @@
   <sheetData>
     <row r="7" spans="5:5">
       <c r="E7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="5:5">
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="5:5">
       <c r="E9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="5:5">
       <c r="E10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="5:5">
       <c r="E12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="5:5">
       <c r="E13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="5:5">
       <c r="E14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="5:5">
       <c r="E15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="5:5">
       <c r="E16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="5:5">
       <c r="E80" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="5:5">
       <c r="E81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="5:5">
       <c r="E82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="5:5">
       <c r="E83" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="5:5">
       <c r="E84" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="5:5">
       <c r="E85" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="5:5">
       <c r="E86" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="5:5">
       <c r="E87" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="5:5">
       <c r="E88" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="5:5">
       <c r="E89" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="5:5">
       <c r="E90" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="5:5">
       <c r="E91" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="5:5">
       <c r="E92" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="5:5">
       <c r="E93" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="5:5">
       <c r="E94" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="5:5">
       <c r="E95" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="5:5">
       <c r="E96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="5:5">
       <c r="E97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="5:5">
       <c r="E98" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="5:5">
       <c r="E99" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="5:5">
       <c r="E100" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="5:5">
       <c r="E101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="5:5">
       <c r="E102" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="5:5">
       <c r="E103" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="5:5">
       <c r="E104" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="5:5">
       <c r="E105" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="5:5">
       <c r="E106" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="5:5">
       <c r="E107" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="5:5">
       <c r="E108" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="5:5">
       <c r="E109" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="5:5">
       <c r="E110" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="5:5">
       <c r="E111" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="5:5">
       <c r="E113" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129" spans="5:5">
       <c r="E129" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130" spans="5:5">
       <c r="E130" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="131" spans="5:5">
       <c r="E131" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="5:5">
       <c r="E132" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="133" spans="5:5">
       <c r="E133" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="5:5">
       <c r="E134" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="135" spans="5:5">
       <c r="E135" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="5:5">
       <c r="E136" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="137" spans="5:5">
       <c r="E137" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="5:5">
       <c r="E138" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139" spans="5:5">
       <c r="E139" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="5:5">
       <c r="E140" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="5:5">
       <c r="E141" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="5:5">
       <c r="E142" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143" spans="5:5">
       <c r="E143" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="5:5">
       <c r="E144" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="5:5">
       <c r="E145" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="5:5">
       <c r="E146" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="5:5">
       <c r="E147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="5:5">
       <c r="E148" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="5:5">
       <c r="E149" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="150" spans="5:5">
       <c r="E150" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="5:5">
       <c r="E151" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="5:5">
       <c r="E152" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="5:5">
       <c r="E153" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="5:5">
       <c r="E154" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="5:5">
       <c r="E155" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="5:5">
       <c r="E156" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="5:5">
       <c r="E157" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="5:5">
       <c r="E158" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="5:5">
       <c r="E159" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="5:5">
       <c r="E160" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="5:5">
       <c r="E161" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="162" spans="5:5">
       <c r="E162" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="5:5">
       <c r="E163" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="164" spans="5:5">
       <c r="E164" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="165" spans="5:5">
       <c r="E165" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="166" spans="5:5">
       <c r="E166" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="167" spans="5:5">
       <c r="E167" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="168" spans="5:5">
       <c r="E168" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="169" spans="5:5">
       <c r="E169" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="170" spans="5:5">
       <c r="E170" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="171" spans="5:5">
       <c r="E171" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="172" spans="5:5">
       <c r="E172" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="173" spans="5:5">
       <c r="E173" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="174" spans="5:5">
       <c r="E174" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="175" spans="5:5">
       <c r="E175" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="5:5">
       <c r="E176" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="177" spans="5:5">
       <c r="E177" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="178" spans="5:5">
       <c r="E178" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="179" spans="5:5">
       <c r="E179" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="180" spans="5:5">
       <c r="E180" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="181" spans="5:5">
       <c r="E181" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="182" spans="5:5">
       <c r="E182" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="183" spans="5:5">
       <c r="E183" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="184" spans="5:5">
       <c r="E184" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="5:5">
       <c r="E185" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="186" spans="5:5">
       <c r="E186" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="5:5">
       <c r="E187" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="188" spans="5:5">
       <c r="E188" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="189" spans="5:5">
       <c r="E189" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="190" spans="5:5">
       <c r="E190" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="5:5">
       <c r="E191" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="192" spans="5:5">
       <c r="E192" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="193" spans="5:5">
       <c r="E193" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="5:5">
       <c r="E194" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="5:5">
       <c r="E195" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="5:5">
       <c r="E196" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="5:5">
       <c r="E197" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="5:5">
       <c r="E198" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="5:5">
       <c r="E199" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="200" spans="5:5">
       <c r="E200" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="201" spans="5:5">
       <c r="E201" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202" spans="5:5">
       <c r="E202" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="5:5">
       <c r="E203" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="204" spans="5:5">
       <c r="E204" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="205" spans="5:5">
       <c r="E205" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="206" spans="5:5">
       <c r="E206" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="207" spans="5:5">
       <c r="E207" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="5:5">
       <c r="E208" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="5:5">
       <c r="E209" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="5:5">
       <c r="E210" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="5:5">
       <c r="E211" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="5:5">
       <c r="E212" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" spans="5:5">
       <c r="E213" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="5:5">
       <c r="E214" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="5:5">
       <c r="E215" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="216" spans="5:5">
       <c r="E216" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="217" spans="5:5">
       <c r="E217" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="218" spans="5:5">
       <c r="E218" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="219" spans="5:5">
       <c r="E219" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="220" spans="5:5">
       <c r="E220" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="221" spans="5:5">
       <c r="E221" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="5:5">
       <c r="E222" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="223" spans="5:5">
       <c r="E223" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="5:5">
       <c r="E224" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="5:5">
       <c r="E225" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="226" spans="5:5">
       <c r="E226" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="227" spans="5:5">
       <c r="E227" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="228" spans="5:5">
       <c r="E228" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="229" spans="5:5">
       <c r="E229" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="230" spans="5:5">
       <c r="E230" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="5:5">
       <c r="E231" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="232" spans="5:5">
       <c r="E232" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="5:5">
       <c r="E233" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="234" spans="5:5">
       <c r="E234" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="235" spans="5:5">
       <c r="E235" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="236" spans="5:5">
       <c r="E236" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="237" spans="5:5">
       <c r="E237" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="238" spans="5:5">
       <c r="E238" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="239" spans="5:5">
       <c r="E239" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="240" spans="5:5">
       <c r="E240" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="241" spans="5:5">
       <c r="E241" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="242" spans="5:5">
       <c r="E242" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="243" spans="5:5">
       <c r="E243" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="244" spans="5:5">
       <c r="E244" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="245" spans="5:5">
       <c r="E245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="246" spans="5:5">
       <c r="E246" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="247" spans="5:5">
       <c r="E247" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="248" spans="5:5">
       <c r="E248" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="5:5">
       <c r="E249" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="250" spans="5:5">
       <c r="E250" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="251" spans="5:5">
       <c r="E251" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="252" spans="5:5">
       <c r="E252" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="253" spans="5:5">
       <c r="E253" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="254" spans="5:5">
       <c r="E254" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="5:5">
       <c r="E255" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" spans="5:5">
       <c r="E256" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="257" spans="5:5">
       <c r="E257" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="5:5">
       <c r="E258" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="5:5">
       <c r="E259" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="260" spans="5:5">
       <c r="E260" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="261" spans="5:5">
       <c r="E261" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="262" spans="5:5">
       <c r="E262" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="263" spans="5:5">
       <c r="E263" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="5:5">
       <c r="E264" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="265" spans="5:5">
       <c r="E265" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="266" spans="5:5">
       <c r="E266" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="5:5">
       <c r="E267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="5:5">
       <c r="E268" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="5:5">
       <c r="E269" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="5:5">
       <c r="E270" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="5:5">
       <c r="E271" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="272" spans="5:5">
       <c r="E272" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="273" spans="5:5">
       <c r="E273" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="274" spans="5:5">
       <c r="E274" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="275" spans="5:5">
       <c r="E275" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="276" spans="5:5">
       <c r="E276" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="277" spans="5:5">
       <c r="E277" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="278" spans="5:5">
       <c r="E278" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="279" spans="5:5">
       <c r="E279" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="280" spans="5:5">
       <c r="E280" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="281" spans="5:5">
       <c r="E281" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="282" spans="5:5">
       <c r="E282" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="283" spans="5:5">
       <c r="E283" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="284" spans="5:5">
       <c r="E284" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="285" spans="5:5">
       <c r="E285" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="286" spans="5:5">
       <c r="E286" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="287" spans="5:5">
       <c r="E287" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="5:5">
       <c r="E288" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="289" spans="5:5">
       <c r="E289" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="290" spans="5:5">
       <c r="E290" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="291" spans="5:5">
       <c r="E291" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="292" spans="5:5">
       <c r="E292" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="293" spans="5:5">
       <c r="E293" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="294" spans="5:5">
       <c r="E294" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="295" spans="5:5">
       <c r="E295" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="5:5">
       <c r="E296" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="297" spans="5:5">
       <c r="E297" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="5:5">
       <c r="E298" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="299" spans="5:5">
       <c r="E299" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="300" spans="5:5">
       <c r="E300" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="301" spans="5:5">
       <c r="E301" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="302" spans="5:5">
       <c r="E302" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="303" spans="5:5">
       <c r="E303" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="304" spans="5:5">
       <c r="E304" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="305" spans="5:5">
       <c r="E305" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="306" spans="5:5">
       <c r="E306" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="307" spans="5:5">
       <c r="E307" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="308" spans="5:5">
       <c r="E308" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="309" spans="5:5">
       <c r="E309" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="310" spans="5:5">
       <c r="E310" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="311" spans="5:5">
       <c r="E311" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="312" spans="5:5">
       <c r="E312" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="313" spans="5:5">
       <c r="E313" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="314" spans="5:5">
       <c r="E314" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="5:5">
       <c r="E315" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="316" spans="5:5">
       <c r="E316" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="317" spans="5:5">
       <c r="E317" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="318" spans="5:5">
       <c r="E318" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="319" spans="5:5">
       <c r="E319" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="320" spans="5:5">
       <c r="E320" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="321" spans="5:5">
       <c r="E321" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="322" spans="5:5">
       <c r="E322" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="323" spans="5:5">
       <c r="E323" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="324" spans="5:5">
       <c r="E324" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="325" spans="5:5">
       <c r="E325" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="5:5">
       <c r="E326" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="327" spans="5:5">
       <c r="E327" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="328" spans="5:5">
       <c r="E328" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="329" spans="5:5">
       <c r="E329" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="330" spans="5:5">
       <c r="E330" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="331" spans="5:5">
       <c r="E331" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="332" spans="5:5">
       <c r="E332" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="333" spans="5:5">
       <c r="E333" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="334" spans="5:5">
       <c r="E334" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="335" spans="5:5">
       <c r="E335" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="336" spans="5:5">
       <c r="E336" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="337" spans="5:5">
       <c r="E337" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="338" spans="5:5">
       <c r="E338" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="339" spans="5:5">
       <c r="E339" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="340" spans="5:5">
       <c r="E340" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="341" spans="5:5">
       <c r="E341" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="342" spans="5:5">
       <c r="E342" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="343" spans="5:5">
       <c r="E343" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="344" spans="5:5">
       <c r="E344" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="345" spans="5:5">
       <c r="E345" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="346" spans="5:5">
       <c r="E346" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="347" spans="5:5">
       <c r="E347" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348" spans="5:5">
       <c r="E348" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="349" spans="5:5">
       <c r="E349" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="5:5">
       <c r="E350" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="351" spans="5:5">
       <c r="E351" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="352" spans="5:5">
       <c r="E352" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="353" spans="5:5">
       <c r="E353" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="354" spans="5:5">
       <c r="E354" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="355" spans="5:5">
       <c r="E355" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="356" spans="5:5">
       <c r="E356" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="357" spans="5:5">
       <c r="E357" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="358" spans="5:5">
       <c r="E358" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="359" spans="5:5">
       <c r="E359" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="360" spans="5:5">
       <c r="E360" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="361" spans="5:5">
       <c r="E361" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="362" spans="5:5">
       <c r="E362" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="363" spans="5:5">
       <c r="E363" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="364" spans="5:5">
       <c r="E364" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="365" spans="5:5">
       <c r="E365" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="366" spans="5:5">
       <c r="E366" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="367" spans="5:5">
       <c r="E367" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="368" spans="5:5">
       <c r="E368" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="369" spans="5:5">
       <c r="E369" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="370" spans="5:5">
       <c r="E370" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="371" spans="5:5">
       <c r="E371" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="372" spans="5:5">
       <c r="E372" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="373" spans="5:5">
       <c r="E373" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="374" spans="5:5">
       <c r="E374" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="375" spans="5:5">
       <c r="E375" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="376" spans="5:5">
       <c r="E376" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="377" spans="5:5">
       <c r="E377" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="378" spans="5:5">
       <c r="E378" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="379" spans="5:5">
       <c r="E379" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="380" spans="5:5">
       <c r="E380" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="381" spans="5:5">
       <c r="E381" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="382" spans="5:5">
       <c r="E382" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="383" spans="5:5">
       <c r="E383" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="384" spans="5:5">
       <c r="E384" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="385" spans="5:5">
       <c r="E385" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="386" spans="5:5">
       <c r="E386" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="387" spans="5:5">
       <c r="E387" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="388" spans="5:5">
       <c r="E388" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="389" spans="5:5">
       <c r="E389" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="390" spans="5:5">
       <c r="E390" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="391" spans="5:5">
       <c r="E391" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="392" spans="5:5">
       <c r="E392" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="393" spans="5:5">
       <c r="E393" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="394" spans="5:5">
       <c r="E394" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="395" spans="5:5">
       <c r="E395" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="396" spans="5:5">
       <c r="E396" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="397" spans="5:5">
       <c r="E397" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="398" spans="5:5">
       <c r="E398" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="399" spans="5:5">
       <c r="E399" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="400" spans="5:5">
       <c r="E400" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="401" spans="5:5">
       <c r="E401" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="402" spans="5:5">
       <c r="E402" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="403" spans="5:5">
       <c r="E403" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="404" spans="5:5">
       <c r="E404" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="405" spans="5:5">
       <c r="E405" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="406" spans="5:5">
       <c r="E406" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="407" spans="5:5">
       <c r="E407" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="408" spans="5:5">
       <c r="E408" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="409" spans="5:5">
       <c r="E409" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="410" spans="5:5">
       <c r="E410" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
